--- a/M4_Team_Plant_Box_case_solution/train_dataset/Пример результата.xlsx
+++ b/M4_Team_Plant_Box_case_solution/train_dataset/Пример результата.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Все\Работа\Москва\Плантбокс\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demin\Private\Projects\GIT\pet_projects\M4_Team_Plant_Box_case_solution\train_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10087407-EE84-4657-AB6E-493ECEED1173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F89E66-640C-452C-8E33-C363489361E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>Ареалы произростания</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Субъект РФ</t>
   </si>
@@ -109,6 +106,21 @@
   </si>
   <si>
     <t>В каких медицинских препаратах содержится, наименование</t>
+  </si>
+  <si>
+    <t>Атлас 2021</t>
+  </si>
+  <si>
+    <t>Атлас 2021 + др источники</t>
+  </si>
+  <si>
+    <t>Ареалы произрастания</t>
+  </si>
+  <si>
+    <t>Сайт Daytime</t>
+  </si>
+  <si>
+    <t>Сайт красная книга</t>
   </si>
 </sst>
 </file>
@@ -444,7 +456,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P9"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,69 +479,69 @@
   <sheetData>
     <row r="1" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="2">
         <v>16</v>
@@ -544,44 +556,85 @@
         <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="Q2" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>

--- a/M4_Team_Plant_Box_case_solution/train_dataset/Пример результата.xlsx
+++ b/M4_Team_Plant_Box_case_solution/train_dataset/Пример результата.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demin\Private\Projects\GIT\pet_projects\M4_Team_Plant_Box_case_solution\train_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F89E66-640C-452C-8E33-C363489361E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9312F7EB-C1AA-4D07-B4A2-E8B793EFBF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
